--- a/Copy of Reguli de valiare ASA_ST-2.xlsx
+++ b/Copy of Reguli de valiare ASA_ST-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ASA_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D20CF8AB-C7BA-44F3-9140-4BDC1C20F660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F1BE6E-0589-4142-A3B1-A23BAFACDA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1394,8 +1394,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Copy of Reguli de valiare ASA_ST-2.xlsx
+++ b/Copy of Reguli de valiare ASA_ST-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ASA_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F1BE6E-0589-4142-A3B1-A23BAFACDA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF0518D-E52B-4489-A16E-91CE03EE5157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1394,8 +1394,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Copy of Reguli de valiare ASA_ST-2.xlsx
+++ b/Copy of Reguli de valiare ASA_ST-2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ASA_23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF0518D-E52B-4489-A16E-91CE03EE5157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382A26EE-41FF-4E6E-BF6F-54C9BF6D3B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -992,13 +992,13 @@
     <t>CAP.5 Coloana E [CUATM] necesita o valoare de 7 cifre (eroare dacă = 0000000, 0100000, 0300000) conform unitatilor locale</t>
   </si>
   <si>
-    <t>CAP.1 Dacă sunt completate rd. 111 CAEM în CAP.4 trebuie să fie un CAEM și anume G45 sau G47</t>
-  </si>
-  <si>
     <t>CAP.1 Dacă sunt completate rd. 112 CAEM în CAP.4 trebuie să fie un CAEM și anume G45 sau G46</t>
   </si>
   <si>
     <t>64-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP.1 Dacă sunt completate rd. 111 CAEM în CAP.4 trebuie să fie un CAEM și anume G45 sau G47 sau G4611 -  G4619 inclusiv  </t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1087,6 +1087,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1394,8 +1396,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,7 +1514,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>140</v>
@@ -2300,16 +2302,19 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="B53" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="G53" t="s">
+      <c r="F53" s="5"/>
+      <c r="G53" s="5" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2318,7 +2323,7 @@
         <v>143</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E54" t="s">
         <v>146</v>
